--- a/gams/matchingRLData_RL_scenarioProbs_pos_Q18.xlsx
+++ b/gams/matchingRLData_RL_scenarioProbs_pos_Q18.xlsx
@@ -698,7 +698,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -861,7 +861,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>b1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1024,7 +1024,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b3</t>
+          <t>b2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1187,7 +1187,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>b4</t>
+          <t>b3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1350,7 +1350,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b5</t>
+          <t>b4</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1513,7 +1513,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b6</t>
+          <t>b5</t>
         </is>
       </c>
       <c r="B7" t="n">
